--- a/BayesianResults/PriorsTable5.xlsx
+++ b/BayesianResults/PriorsTable5.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F22">
         <v>1</v>

--- a/BayesianResults/PriorsTable5.xlsx
+++ b/BayesianResults/PriorsTable5.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\SALES\Fundos de Mercado\Pedro Mattos\Notebooks\Nowcasting\BayesianResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PedroBraz2/Documents/Repos/Nowcasting/BayesianResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="9135"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19860" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="150001" calcMode="manual" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -248,11 +251,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +266,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,16 +304,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -609,21 +632,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E3" sqref="E2:E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +663,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -651,16 +674,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -671,16 +694,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -691,16 +714,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -711,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -731,16 +754,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -751,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -771,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -791,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -811,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -831,16 +854,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -851,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -871,16 +894,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -891,16 +914,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -911,16 +934,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -931,16 +954,16 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -951,16 +974,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -971,16 +994,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -991,16 +1014,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1011,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1031,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1051,16 +1074,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1071,17 +1094,17 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1092,16 +1115,16 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1112,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1132,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1152,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1172,16 +1195,16 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1192,16 +1215,16 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1212,16 +1235,16 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1232,16 +1255,16 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1252,16 +1275,16 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1272,16 +1295,16 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1292,16 +1315,16 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1312,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1332,16 +1355,16 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1352,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1372,16 +1395,16 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1392,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1412,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1432,16 +1455,16 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1452,16 +1475,16 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1472,16 +1495,16 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1492,16 +1515,16 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1518,7 +1541,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1535,7 +1558,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1552,7 +1575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1569,7 +1592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1586,7 +1609,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1603,7 +1626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1620,7 +1643,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1637,7 +1660,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1654,7 +1677,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1671,7 +1694,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1688,7 +1711,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1705,7 +1728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1722,7 +1745,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1739,7 +1762,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1756,7 +1779,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1773,7 +1796,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1790,7 +1813,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1807,7 +1830,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1824,7 +1847,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1841,7 +1864,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1858,7 +1881,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1875,7 +1898,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1894,5 +1917,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>